--- a/Code/Results/Cases/Case_3_125/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_125/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.514342682493918</v>
+        <v>1.271646772049905</v>
       </c>
       <c r="C2">
-        <v>0.5291532379399939</v>
+        <v>0.3476061929558512</v>
       </c>
       <c r="D2">
-        <v>0.07061080774590067</v>
+        <v>0.02441764782842881</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.2888860350883888</v>
+        <v>0.4217104846387301</v>
       </c>
       <c r="G2">
-        <v>0.1854108642211685</v>
+        <v>0.2684733239362203</v>
       </c>
       <c r="H2">
-        <v>0.16731763805263</v>
+        <v>0.4447382381477354</v>
       </c>
       <c r="I2">
-        <v>0.122634661694299</v>
+        <v>0.4137322083167376</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4091516521786076</v>
+        <v>0.2999281063084425</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.6942749890210393</v>
+        <v>1.347907406768925</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.061266879378763</v>
+        <v>1.125350326766807</v>
       </c>
       <c r="C3">
-        <v>0.4859537602721389</v>
+        <v>0.3334892202241519</v>
       </c>
       <c r="D3">
-        <v>0.06204890575826028</v>
+        <v>0.02159442738581419</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.2684205561230328</v>
+        <v>0.4221922092944936</v>
       </c>
       <c r="G3">
-        <v>0.1730768197349022</v>
+        <v>0.2700995352384936</v>
       </c>
       <c r="H3">
-        <v>0.1677512612760736</v>
+        <v>0.4495858651692117</v>
       </c>
       <c r="I3">
-        <v>0.1334671004246264</v>
+        <v>0.4228202327628203</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3606070960079393</v>
+        <v>0.2883149905328111</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.6686658318166536</v>
+        <v>1.361238472332232</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.783010309274346</v>
+        <v>1.035251821604675</v>
       </c>
       <c r="C4">
-        <v>0.4595157068668811</v>
+        <v>0.3248484222071397</v>
       </c>
       <c r="D4">
-        <v>0.05678285392416171</v>
+        <v>0.01985219986630682</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.256722477420368</v>
+        <v>0.4228811660229113</v>
       </c>
       <c r="G4">
-        <v>0.1663032641947808</v>
+        <v>0.271418766893099</v>
       </c>
       <c r="H4">
-        <v>0.168528722941879</v>
+        <v>0.45284773932147</v>
       </c>
       <c r="I4">
-        <v>0.1408962910483744</v>
+        <v>0.4287779301504386</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3312083259908434</v>
+        <v>0.281354871719131</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.6556978297880107</v>
+        <v>1.370692078904241</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.669573295574764</v>
+        <v>0.9984702208467411</v>
       </c>
       <c r="C5">
-        <v>0.4487615981061879</v>
+        <v>0.3213344333515806</v>
       </c>
       <c r="D5">
-        <v>0.05463423927999855</v>
+        <v>0.01914007419814112</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2521606974690016</v>
+        <v>0.4232606183171157</v>
       </c>
       <c r="G5">
-        <v>0.163731490013987</v>
+        <v>0.2720367497487999</v>
       </c>
       <c r="H5">
-        <v>0.1689684854271647</v>
+        <v>0.4542487088830711</v>
       </c>
       <c r="I5">
-        <v>0.1441106536575489</v>
+        <v>0.4313005042171589</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3193214335681205</v>
+        <v>0.2785614762152306</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.6510679278365075</v>
+        <v>1.374862767773067</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.650733639964983</v>
+        <v>0.9923587723892524</v>
       </c>
       <c r="C6">
-        <v>0.4469770115742335</v>
+        <v>0.320751385176294</v>
       </c>
       <c r="D6">
-        <v>0.05427729217369404</v>
+        <v>0.01902169762374228</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2514152485458183</v>
+        <v>0.4233295821069873</v>
       </c>
       <c r="G6">
-        <v>0.1633154774803884</v>
+        <v>0.2721442125982705</v>
       </c>
       <c r="H6">
-        <v>0.1690487737418778</v>
+        <v>0.4544856699202242</v>
       </c>
       <c r="I6">
-        <v>0.1446554365970449</v>
+        <v>0.4317250936482591</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3173530019762865</v>
+        <v>0.2781002285967702</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.6503375864775052</v>
+        <v>1.37557451088523</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.781480677343382</v>
+        <v>1.034756034688883</v>
       </c>
       <c r="C7">
-        <v>0.4593705965042432</v>
+        <v>0.3248010016177432</v>
       </c>
       <c r="D7">
-        <v>0.05675388820517924</v>
+        <v>0.01984260454625542</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.256660141159287</v>
+        <v>0.4228858840566545</v>
       </c>
       <c r="G7">
-        <v>0.1662678332905116</v>
+        <v>0.2714267761020395</v>
       </c>
       <c r="H7">
-        <v>0.1685341631780233</v>
+        <v>0.4528663429104327</v>
       </c>
       <c r="I7">
-        <v>0.1409388955526794</v>
+        <v>0.4288115670231747</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3310476490668322</v>
+        <v>0.2813170251832275</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.6556327880737598</v>
+        <v>1.37074703848748</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.35811793579569</v>
+        <v>1.221261724423528</v>
       </c>
       <c r="C8">
-        <v>0.5142387086350766</v>
+        <v>0.3427332726151064</v>
       </c>
       <c r="D8">
-        <v>0.06766028800013402</v>
+        <v>0.02344604759914404</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.2816414540159826</v>
+        <v>0.4217948761496189</v>
       </c>
       <c r="G8">
-        <v>0.1809843898057935</v>
+        <v>0.2689673141132545</v>
       </c>
       <c r="H8">
-        <v>0.1673575933330582</v>
+        <v>0.4463504390574755</v>
       </c>
       <c r="I8">
-        <v>0.1262028333942187</v>
+        <v>0.4167872724406045</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3923231596068604</v>
+        <v>0.2958885763576831</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.6848492675134992</v>
+        <v>1.352240335153724</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.489821731145867</v>
+        <v>1.584743363193184</v>
       </c>
       <c r="C9">
-        <v>0.6226350265485507</v>
+        <v>0.3780977549428997</v>
       </c>
       <c r="D9">
-        <v>0.08899621954702042</v>
+        <v>0.03044108195143735</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.3381299984125263</v>
+        <v>0.4227834363240106</v>
       </c>
       <c r="G9">
-        <v>0.2167841815843445</v>
+        <v>0.2667014069140379</v>
       </c>
       <c r="H9">
-        <v>0.1693725578895311</v>
+        <v>0.4358392208957369</v>
       </c>
       <c r="I9">
-        <v>0.1038907373296905</v>
+        <v>0.3962120373597653</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5161638741092816</v>
+        <v>0.3258142095225196</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.7658327935426712</v>
+        <v>1.326042017033714</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.324090068496787</v>
+        <v>1.850313008249771</v>
       </c>
       <c r="C10">
-        <v>0.702941486544745</v>
+        <v>0.4041835376434619</v>
       </c>
       <c r="D10">
-        <v>0.1046717145327278</v>
+        <v>0.03553491321693514</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.3851077823913371</v>
+        <v>0.4254291682932703</v>
       </c>
       <c r="G10">
-        <v>0.248193226239529</v>
+        <v>0.2666128248144659</v>
       </c>
       <c r="H10">
-        <v>0.1738781820151729</v>
+        <v>0.4295009284947469</v>
       </c>
       <c r="I10">
-        <v>0.09211389189158936</v>
+        <v>0.3829377016223123</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.6100555137986134</v>
+        <v>0.3486254481999396</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.8424481992468031</v>
+        <v>1.312989789252541</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.704776446974734</v>
+        <v>1.970785659475496</v>
       </c>
       <c r="C11">
-        <v>0.7396644986393994</v>
+        <v>0.4160695147502338</v>
       </c>
       <c r="D11">
-        <v>0.1118105281142334</v>
+        <v>0.03784198416842344</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.4078815831093792</v>
+        <v>0.4270522851275871</v>
       </c>
       <c r="G11">
-        <v>0.2637980999564036</v>
+        <v>0.2669184914303457</v>
       </c>
       <c r="H11">
-        <v>0.1766771872592585</v>
+        <v>0.4269186304793848</v>
       </c>
       <c r="I11">
-        <v>0.08790040945565636</v>
+        <v>0.377301171570215</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6535582861705933</v>
+        <v>0.3591824440480877</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.8816521193101892</v>
+        <v>1.308406466292041</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.849148999780141</v>
+        <v>2.016354895944289</v>
       </c>
       <c r="C12">
-        <v>0.7536019308503512</v>
+        <v>0.4205728652550818</v>
       </c>
       <c r="D12">
-        <v>0.114515608950839</v>
+        <v>0.03871411129863134</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4167262185971339</v>
+        <v>0.4277274458516942</v>
       </c>
       <c r="G12">
-        <v>0.2699151011721312</v>
+        <v>0.2670842768064006</v>
       </c>
       <c r="H12">
-        <v>0.1778531257725859</v>
+        <v>0.4259841159530851</v>
       </c>
       <c r="I12">
-        <v>0.08648207017363241</v>
+        <v>0.3752247758738037</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6701594048495707</v>
+        <v>0.3632059707822464</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.8971798623867926</v>
+        <v>1.306866331076918</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.818045455964921</v>
+        <v>2.00654306411775</v>
       </c>
       <c r="C13">
-        <v>0.7505988038759881</v>
+        <v>0.4196028882912799</v>
       </c>
       <c r="D13">
-        <v>0.1139329323437437</v>
+        <v>0.03852635113558733</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.4148112384192757</v>
+        <v>0.4275793432061761</v>
       </c>
       <c r="G13">
-        <v>0.2685881477773506</v>
+        <v>0.2670463420475855</v>
       </c>
       <c r="H13">
-        <v>0.1775945689872174</v>
+        <v>0.4261834516323262</v>
       </c>
       <c r="I13">
-        <v>0.08677944148495165</v>
+        <v>0.3756693801154984</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6665781528071335</v>
+        <v>0.362338284997719</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.8938044109135888</v>
+        <v>1.307189321509924</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.716649479712373</v>
+        <v>1.974535708793326</v>
       </c>
       <c r="C14">
-        <v>0.7408104912726685</v>
+        <v>0.4164399625283579</v>
       </c>
       <c r="D14">
-        <v>0.1120330375804031</v>
+        <v>0.03791376516784339</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4086047008973352</v>
+        <v>0.4271066169877287</v>
       </c>
       <c r="G14">
-        <v>0.2642970751855955</v>
+        <v>0.2669311262605447</v>
       </c>
       <c r="H14">
-        <v>0.1767715579835425</v>
+        <v>0.4268408783587034</v>
       </c>
       <c r="I14">
-        <v>0.08778009425397748</v>
+        <v>0.3771291808395034</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6549214309459899</v>
+        <v>0.3595129449098522</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.8829155897583121</v>
+        <v>1.308275836735646</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.654570933099421</v>
+        <v>1.954923537131947</v>
       </c>
       <c r="C15">
-        <v>0.7348190497344547</v>
+        <v>0.4145028783561315</v>
       </c>
       <c r="D15">
-        <v>0.1108695466506049</v>
+        <v>0.0375383402931817</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.404832340165612</v>
+        <v>0.4268249458064162</v>
       </c>
       <c r="G15">
-        <v>0.2616962959879601</v>
+        <v>0.2668670779131759</v>
       </c>
       <c r="H15">
-        <v>0.1762828033739936</v>
+        <v>0.4272492178409308</v>
       </c>
       <c r="I15">
-        <v>0.08841649376282135</v>
+        <v>0.3780309155608474</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6477983917360035</v>
+        <v>0.3577857031896912</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.8763364366299129</v>
+        <v>1.308966836386944</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.299238792522317</v>
+        <v>1.84243283148561</v>
       </c>
       <c r="C16">
-        <v>0.7005457103605579</v>
+        <v>0.4034071172962399</v>
       </c>
       <c r="D16">
-        <v>0.1042053884863776</v>
+        <v>0.03538393218543945</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.383649286577942</v>
+        <v>0.4253315526582568</v>
       </c>
       <c r="G16">
-        <v>0.2472014543937107</v>
+        <v>0.2665998350317409</v>
       </c>
       <c r="H16">
-        <v>0.1737110329079172</v>
+        <v>0.4296757501456554</v>
       </c>
       <c r="I16">
-        <v>0.0924133395109088</v>
+        <v>0.383314171213053</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.6072295811180908</v>
+        <v>0.3479391408219641</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.8399784206120557</v>
+        <v>1.313316633337791</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.08158627494555</v>
+        <v>1.773335303783085</v>
       </c>
       <c r="C17">
-        <v>0.6795716515608774</v>
+        <v>0.3966049132593525</v>
       </c>
       <c r="D17">
-        <v>0.1001196084432507</v>
+        <v>0.03405963834643444</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.3710266558934947</v>
+        <v>0.4245229992771158</v>
       </c>
       <c r="G17">
-        <v>0.2386593135363739</v>
+        <v>0.2665247045819186</v>
       </c>
       <c r="H17">
-        <v>0.1723309687987395</v>
+        <v>0.4312414904349495</v>
       </c>
       <c r="I17">
-        <v>0.09516704305120172</v>
+        <v>0.3866584072546804</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5825540488145293</v>
+        <v>0.3419446593830173</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.818827326787499</v>
+        <v>1.316332462771882</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.956505784262163</v>
+        <v>1.733560742861528</v>
       </c>
       <c r="C18">
-        <v>0.6675256821401376</v>
+        <v>0.3926943175536337</v>
       </c>
       <c r="D18">
-        <v>0.09777028413786581</v>
+        <v>0.03329698841409368</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.3638973418947486</v>
+        <v>0.4240974205769135</v>
       </c>
       <c r="G18">
-        <v>0.2338688636185822</v>
+        <v>0.266514038209607</v>
       </c>
       <c r="H18">
-        <v>0.171607200747097</v>
+        <v>0.4321703930517202</v>
       </c>
       <c r="I18">
-        <v>0.09685775651408868</v>
+        <v>0.388619751167294</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.568434903530175</v>
+        <v>0.3385137434325856</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.8070677385840241</v>
+        <v>1.318194508210453</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.914172793190744</v>
+        <v>1.720088436523724</v>
       </c>
       <c r="C19">
-        <v>0.6634500647551533</v>
+        <v>0.391370587532208</v>
       </c>
       <c r="D19">
-        <v>0.09697494674118445</v>
+        <v>0.03303860649900514</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.3615054037207983</v>
+        <v>0.4239601018279089</v>
       </c>
       <c r="G19">
-        <v>0.2322674428634386</v>
+        <v>0.2665160078986588</v>
       </c>
       <c r="H19">
-        <v>0.171373926743918</v>
+        <v>0.4324897674550314</v>
       </c>
       <c r="I19">
-        <v>0.09744818127461308</v>
+        <v>0.3892903186298486</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5636666337593539</v>
+        <v>0.3373550077381395</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.8031542119902326</v>
+        <v>1.318846826765977</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.104744310672174</v>
+        <v>1.78069413293224</v>
       </c>
       <c r="C20">
-        <v>0.6818025124036353</v>
+        <v>0.3973288307413725</v>
       </c>
       <c r="D20">
-        <v>0.1005544690346909</v>
+        <v>0.03420071050850026</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.3723566770847455</v>
+        <v>0.4246049837719283</v>
       </c>
       <c r="G20">
-        <v>0.2395558038996413</v>
+        <v>0.2665293318013724</v>
       </c>
       <c r="H20">
-        <v>0.1724705753468285</v>
+        <v>0.431071882207668</v>
       </c>
       <c r="I20">
-        <v>0.09486275786004938</v>
+        <v>0.3862984909568699</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5851730903358714</v>
+        <v>0.3425810282798949</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.8210364850675234</v>
+        <v>1.315998229715376</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.746425717809075</v>
+        <v>1.983938454948031</v>
       </c>
       <c r="C21">
-        <v>0.7436846771985586</v>
+        <v>0.4173689288610944</v>
       </c>
       <c r="D21">
-        <v>0.1125910295540109</v>
+        <v>0.03809373793055215</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.4104215650786003</v>
+        <v>0.4272438241014527</v>
       </c>
       <c r="G21">
-        <v>0.2655516751755584</v>
+        <v>0.2669636076904283</v>
       </c>
       <c r="H21">
-        <v>0.177010079008582</v>
+        <v>0.4266465993363013</v>
       </c>
       <c r="I21">
-        <v>0.08748126307122028</v>
+        <v>0.3766988251205827</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6583417156244309</v>
+        <v>0.3603421155461461</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.8860949208957152</v>
+        <v>1.307951390039335</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.167078236047985</v>
+        <v>2.116470999645287</v>
       </c>
       <c r="C22">
-        <v>0.7843122152930846</v>
+        <v>0.4304800313677504</v>
       </c>
       <c r="D22">
-        <v>0.1204682428401753</v>
+        <v>0.04062922734858887</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.4365952248866023</v>
+        <v>0.4293213111416634</v>
       </c>
       <c r="G22">
-        <v>0.2837620223430974</v>
+        <v>0.2675392120402336</v>
       </c>
       <c r="H22">
-        <v>0.1806573844143458</v>
+        <v>0.4240071000072021</v>
       </c>
       <c r="I22">
-        <v>0.08369650188365441</v>
+        <v>0.3707632696381697</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.7069123186300175</v>
+        <v>0.3721004880366507</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.9326189820206707</v>
+        <v>1.303832000016399</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.942435035481822</v>
+        <v>2.045764191462297</v>
       </c>
       <c r="C23">
-        <v>0.7626103831815954</v>
+        <v>0.4234812644764929</v>
       </c>
       <c r="D23">
-        <v>0.1162628346029067</v>
+        <v>0.03927681413611595</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.4225006839343237</v>
+        <v>0.4281801692753291</v>
       </c>
       <c r="G23">
-        <v>0.2739247154475777</v>
+        <v>0.2672052090750299</v>
       </c>
       <c r="H23">
-        <v>0.1786456069754792</v>
+        <v>0.425392710997869</v>
       </c>
       <c r="I23">
-        <v>0.08561695874524666</v>
+        <v>0.3739001515678986</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6809157574443674</v>
+        <v>0.3658110778247021</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.9074021453301953</v>
+        <v>1.30592607275662</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.094274407804278</v>
+        <v>1.777367360163908</v>
       </c>
       <c r="C24">
-        <v>0.6807939021944946</v>
+        <v>0.3970015473613273</v>
       </c>
       <c r="D24">
-        <v>0.1003578697132497</v>
+        <v>0.0341369358164485</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.3717549784579788</v>
+        <v>0.4245677962754542</v>
       </c>
       <c r="G24">
-        <v>0.2391501265278606</v>
+        <v>0.2665271385380237</v>
       </c>
       <c r="H24">
-        <v>0.1724072429025014</v>
+        <v>0.4311484725752379</v>
       </c>
       <c r="I24">
-        <v>0.09499999108302859</v>
+        <v>0.3864610885899928</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5839888135493965</v>
+        <v>0.3422932779563297</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.8200364814914849</v>
+        <v>1.316148937186796</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.183345997791662</v>
+        <v>1.486664389307521</v>
       </c>
       <c r="C25">
-        <v>0.5932076610472734</v>
+        <v>0.3685112637388102</v>
       </c>
       <c r="D25">
-        <v>0.08322669618127776</v>
+        <v>0.02855657613197593</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.3219553821331402</v>
+        <v>0.4221798263982137</v>
       </c>
       <c r="G25">
-        <v>0.2062691343284797</v>
+        <v>0.2670388432517186</v>
       </c>
       <c r="H25">
-        <v>0.1683258788858168</v>
+        <v>0.4384398733895054</v>
       </c>
       <c r="I25">
-        <v>0.1091618286707678</v>
+        <v>0.4014554316263048</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4822019201106542</v>
+        <v>0.31757377310295</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.7411220814153552</v>
+        <v>1.332044382984904</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_125/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_125/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.271646772049905</v>
+        <v>3.514342682494203</v>
       </c>
       <c r="C2">
-        <v>0.3476061929558512</v>
+        <v>0.5291532379399939</v>
       </c>
       <c r="D2">
-        <v>0.02441764782842881</v>
+        <v>0.07061080774604278</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4217104846387301</v>
+        <v>0.2888860350883888</v>
       </c>
       <c r="G2">
-        <v>0.2684733239362203</v>
+        <v>0.1854108642211827</v>
       </c>
       <c r="H2">
-        <v>0.4447382381477354</v>
+        <v>0.1673176380525163</v>
       </c>
       <c r="I2">
-        <v>0.4137322083167376</v>
+        <v>0.1226346616943008</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2999281063084425</v>
+        <v>0.4091516521786218</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.347907406768925</v>
+        <v>0.6942749890210678</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.125350326766807</v>
+        <v>3.061266879378593</v>
       </c>
       <c r="C3">
-        <v>0.3334892202241519</v>
+        <v>0.4859537602722241</v>
       </c>
       <c r="D3">
-        <v>0.02159442738581419</v>
+        <v>0.06204890575838817</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4221922092944936</v>
+        <v>0.268420556123047</v>
       </c>
       <c r="G3">
-        <v>0.2700995352384936</v>
+        <v>0.1730768197349164</v>
       </c>
       <c r="H3">
-        <v>0.4495858651692117</v>
+        <v>0.1677512612760736</v>
       </c>
       <c r="I3">
-        <v>0.4228202327628203</v>
+        <v>0.1334671004246228</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2883149905328111</v>
+        <v>0.3606070960080103</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.361238472332232</v>
+        <v>0.6686658318166536</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.035251821604675</v>
+        <v>2.783010309274346</v>
       </c>
       <c r="C4">
-        <v>0.3248484222071397</v>
+        <v>0.4595157068673075</v>
       </c>
       <c r="D4">
-        <v>0.01985219986630682</v>
+        <v>0.05678285392441751</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4228811660229113</v>
+        <v>0.2567224774203609</v>
       </c>
       <c r="G4">
-        <v>0.271418766893099</v>
+        <v>0.1663032641948305</v>
       </c>
       <c r="H4">
-        <v>0.45284773932147</v>
+        <v>0.1685287229418648</v>
       </c>
       <c r="I4">
-        <v>0.4287779301504386</v>
+        <v>0.1408962910483709</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.281354871719131</v>
+        <v>0.3312083259907581</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.370692078904241</v>
+        <v>0.6556978297880107</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9984702208467411</v>
+        <v>2.669573295574821</v>
       </c>
       <c r="C5">
-        <v>0.3213344333515806</v>
+        <v>0.4487615981059037</v>
       </c>
       <c r="D5">
-        <v>0.01914007419814112</v>
+        <v>0.05463423928002697</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4232606183171157</v>
+        <v>0.2521606974689803</v>
       </c>
       <c r="G5">
-        <v>0.2720367497487999</v>
+        <v>0.1637314900139515</v>
       </c>
       <c r="H5">
-        <v>0.4542487088830711</v>
+        <v>0.1689684854271718</v>
       </c>
       <c r="I5">
-        <v>0.4313005042171589</v>
+        <v>0.1441106536575631</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2785614762152306</v>
+        <v>0.3193214335681205</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.374862767773067</v>
+        <v>0.6510679278365359</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9923587723892524</v>
+        <v>2.650733639964926</v>
       </c>
       <c r="C6">
-        <v>0.320751385176294</v>
+        <v>0.4469770115742335</v>
       </c>
       <c r="D6">
-        <v>0.01902169762374228</v>
+        <v>0.05427729217358035</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4233295821069873</v>
+        <v>0.2514152485458183</v>
       </c>
       <c r="G6">
-        <v>0.2721442125982705</v>
+        <v>0.1633154774805092</v>
       </c>
       <c r="H6">
-        <v>0.4544856699202242</v>
+        <v>0.1690487737419915</v>
       </c>
       <c r="I6">
-        <v>0.4317250936482591</v>
+        <v>0.1446554365970467</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2781002285967702</v>
+        <v>0.317353001976187</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.37557451088523</v>
+        <v>0.650337586477491</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.034756034688883</v>
+        <v>2.781480677343438</v>
       </c>
       <c r="C7">
-        <v>0.3248010016177432</v>
+        <v>0.4593705965042432</v>
       </c>
       <c r="D7">
-        <v>0.01984260454625542</v>
+        <v>0.05675388820515792</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4228858840566545</v>
+        <v>0.2566601411592799</v>
       </c>
       <c r="G7">
-        <v>0.2714267761020395</v>
+        <v>0.1662678332905045</v>
       </c>
       <c r="H7">
-        <v>0.4528663429104327</v>
+        <v>0.1685341631780233</v>
       </c>
       <c r="I7">
-        <v>0.4288115670231747</v>
+        <v>0.1409388955526794</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2813170251832275</v>
+        <v>0.3310476490668606</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.37074703848748</v>
+        <v>0.6556327880737598</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.221261724423528</v>
+        <v>3.358117935795747</v>
       </c>
       <c r="C8">
-        <v>0.3427332726151064</v>
+        <v>0.5142387086350197</v>
       </c>
       <c r="D8">
-        <v>0.02344604759914404</v>
+        <v>0.0676602880001056</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4217948761496189</v>
+        <v>0.2816414540159684</v>
       </c>
       <c r="G8">
-        <v>0.2689673141132545</v>
+        <v>0.1809843898057935</v>
       </c>
       <c r="H8">
-        <v>0.4463504390574755</v>
+        <v>0.1673575933330511</v>
       </c>
       <c r="I8">
-        <v>0.4167872724406045</v>
+        <v>0.1262028333942151</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2958885763576831</v>
+        <v>0.3923231596069314</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.352240335153724</v>
+        <v>0.684849267513485</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.584743363193184</v>
+        <v>4.489821731145923</v>
       </c>
       <c r="C9">
-        <v>0.3780977549428997</v>
+        <v>0.6226350265485507</v>
       </c>
       <c r="D9">
-        <v>0.03044108195143735</v>
+        <v>0.08899621954708437</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4227834363240106</v>
+        <v>0.3381299984125334</v>
       </c>
       <c r="G9">
-        <v>0.2667014069140379</v>
+        <v>0.2167841815842806</v>
       </c>
       <c r="H9">
-        <v>0.4358392208957369</v>
+        <v>0.1693725578896448</v>
       </c>
       <c r="I9">
-        <v>0.3962120373597653</v>
+        <v>0.1038907373297029</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3258142095225196</v>
+        <v>0.516163874109381</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.326042017033714</v>
+        <v>0.765832793542657</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.850313008249771</v>
+        <v>5.324090068496673</v>
       </c>
       <c r="C10">
-        <v>0.4041835376434619</v>
+        <v>0.702941486544546</v>
       </c>
       <c r="D10">
-        <v>0.03553491321693514</v>
+        <v>0.1046717145326852</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.4254291682932703</v>
+        <v>0.3851077823913371</v>
       </c>
       <c r="G10">
-        <v>0.2666128248144659</v>
+        <v>0.2481932262395219</v>
       </c>
       <c r="H10">
-        <v>0.4295009284947469</v>
+        <v>0.1738781820151729</v>
       </c>
       <c r="I10">
-        <v>0.3829377016223123</v>
+        <v>0.09211389189158936</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3486254481999396</v>
+        <v>0.6100555137985424</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.312989789252541</v>
+        <v>0.8424481992468174</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.970785659475496</v>
+        <v>5.704776446974449</v>
       </c>
       <c r="C11">
-        <v>0.4160695147502338</v>
+        <v>0.7396644986394563</v>
       </c>
       <c r="D11">
-        <v>0.03784198416842344</v>
+        <v>0.1118105281142192</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.4270522851275871</v>
+        <v>0.4078815831094005</v>
       </c>
       <c r="G11">
-        <v>0.2669184914303457</v>
+        <v>0.2637980999563894</v>
       </c>
       <c r="H11">
-        <v>0.4269186304793848</v>
+        <v>0.1766771872592585</v>
       </c>
       <c r="I11">
-        <v>0.377301171570215</v>
+        <v>0.0879004094556457</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3591824440480877</v>
+        <v>0.6535582861706217</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.308406466292041</v>
+        <v>0.8816521193102176</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.016354895944289</v>
+        <v>5.849148999780425</v>
       </c>
       <c r="C12">
-        <v>0.4205728652550818</v>
+        <v>0.7536019308503228</v>
       </c>
       <c r="D12">
-        <v>0.03871411129863134</v>
+        <v>0.1145156089509385</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4277274458516942</v>
+        <v>0.416726218597141</v>
       </c>
       <c r="G12">
-        <v>0.2670842768064006</v>
+        <v>0.2699151011721312</v>
       </c>
       <c r="H12">
-        <v>0.4259841159530851</v>
+        <v>0.1778531257726996</v>
       </c>
       <c r="I12">
-        <v>0.3752247758738037</v>
+        <v>0.08648207017363241</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3632059707822464</v>
+        <v>0.6701594048496275</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.306866331076918</v>
+        <v>0.8971798623866505</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.00654306411775</v>
+        <v>5.818045455964807</v>
       </c>
       <c r="C13">
-        <v>0.4196028882912799</v>
+        <v>0.7505988038757323</v>
       </c>
       <c r="D13">
-        <v>0.03852635113558733</v>
+        <v>0.1139329323436016</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.4275793432061761</v>
+        <v>0.4148112384192615</v>
       </c>
       <c r="G13">
-        <v>0.2670463420475855</v>
+        <v>0.2685881477774075</v>
       </c>
       <c r="H13">
-        <v>0.4261834516323262</v>
+        <v>0.1775945689872174</v>
       </c>
       <c r="I13">
-        <v>0.3756693801154984</v>
+        <v>0.08677944148495165</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.362338284997719</v>
+        <v>0.6665781528070625</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.307189321509924</v>
+        <v>0.8938044109135888</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.974535708793326</v>
+        <v>5.716649479712373</v>
       </c>
       <c r="C14">
-        <v>0.4164399625283579</v>
+        <v>0.7408104912724127</v>
       </c>
       <c r="D14">
-        <v>0.03791376516784339</v>
+        <v>0.1120330375803036</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4271066169877287</v>
+        <v>0.4086047008973281</v>
       </c>
       <c r="G14">
-        <v>0.2669311262605447</v>
+        <v>0.2642970751855245</v>
       </c>
       <c r="H14">
-        <v>0.4268408783587034</v>
+        <v>0.176771557983443</v>
       </c>
       <c r="I14">
-        <v>0.3771291808395034</v>
+        <v>0.08778009425396682</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3595129449098522</v>
+        <v>0.6549214309460183</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.308275836735646</v>
+        <v>0.8829155897583689</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.954923537131947</v>
+        <v>5.654570933099421</v>
       </c>
       <c r="C15">
-        <v>0.4145028783561315</v>
+        <v>0.7348190497346252</v>
       </c>
       <c r="D15">
-        <v>0.0375383402931817</v>
+        <v>0.1108695466506333</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.4268249458064162</v>
+        <v>0.4048323401656049</v>
       </c>
       <c r="G15">
-        <v>0.2668670779131759</v>
+        <v>0.2616962959879459</v>
       </c>
       <c r="H15">
-        <v>0.4272492178409308</v>
+        <v>0.1762828033739936</v>
       </c>
       <c r="I15">
-        <v>0.3780309155608474</v>
+        <v>0.08841649376281957</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3577857031896912</v>
+        <v>0.6477983917360461</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.308966836386944</v>
+        <v>0.8763364366299697</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.84243283148561</v>
+        <v>5.299238792522374</v>
       </c>
       <c r="C16">
-        <v>0.4034071172962399</v>
+        <v>0.7005457103605011</v>
       </c>
       <c r="D16">
-        <v>0.03538393218543945</v>
+        <v>0.1042053884865339</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.4253315526582568</v>
+        <v>0.3836492865779491</v>
       </c>
       <c r="G16">
-        <v>0.2665998350317409</v>
+        <v>0.2472014543937249</v>
       </c>
       <c r="H16">
-        <v>0.4296757501456554</v>
+        <v>0.1737110329079172</v>
       </c>
       <c r="I16">
-        <v>0.383314171213053</v>
+        <v>0.0924133395109088</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3479391408219641</v>
+        <v>0.607229581118105</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.313316633337791</v>
+        <v>0.83997842061207</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.773335303783085</v>
+        <v>5.081586274945437</v>
       </c>
       <c r="C17">
-        <v>0.3966049132593525</v>
+        <v>0.6795716515608774</v>
       </c>
       <c r="D17">
-        <v>0.03405963834643444</v>
+        <v>0.1001196084431371</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.4245229992771158</v>
+        <v>0.3710266558934805</v>
       </c>
       <c r="G17">
-        <v>0.2665247045819186</v>
+        <v>0.2386593135364379</v>
       </c>
       <c r="H17">
-        <v>0.4312414904349495</v>
+        <v>0.1723309687987395</v>
       </c>
       <c r="I17">
-        <v>0.3866584072546804</v>
+        <v>0.09516704305121593</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3419446593830173</v>
+        <v>0.5825540488144725</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.316332462771882</v>
+        <v>0.818827326787499</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.733560742861528</v>
+        <v>4.95650578426222</v>
       </c>
       <c r="C18">
-        <v>0.3926943175536337</v>
+        <v>0.6675256821401376</v>
       </c>
       <c r="D18">
-        <v>0.03329698841409368</v>
+        <v>0.09777028413782318</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.4240974205769135</v>
+        <v>0.3638973418947344</v>
       </c>
       <c r="G18">
-        <v>0.266514038209607</v>
+        <v>0.2338688636185253</v>
       </c>
       <c r="H18">
-        <v>0.4321703930517202</v>
+        <v>0.1716072007472107</v>
       </c>
       <c r="I18">
-        <v>0.388619751167294</v>
+        <v>0.0968577565140869</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3385137434325856</v>
+        <v>0.5684349035302034</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.318194508210453</v>
+        <v>0.8070677385840099</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.720088436523724</v>
+        <v>4.91417279319063</v>
       </c>
       <c r="C19">
-        <v>0.391370587532208</v>
+        <v>0.6634500647551249</v>
       </c>
       <c r="D19">
-        <v>0.03303860649900514</v>
+        <v>0.0969749467409855</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4239601018279089</v>
+        <v>0.3615054037207841</v>
       </c>
       <c r="G19">
-        <v>0.2665160078986588</v>
+        <v>0.2322674428635025</v>
       </c>
       <c r="H19">
-        <v>0.4324897674550314</v>
+        <v>0.171373926743918</v>
       </c>
       <c r="I19">
-        <v>0.3892903186298486</v>
+        <v>0.09744818127462374</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3373550077381395</v>
+        <v>0.5636666337594249</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.318846826765977</v>
+        <v>0.8031542119901616</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.78069413293224</v>
+        <v>5.104744310672402</v>
       </c>
       <c r="C20">
-        <v>0.3973288307413725</v>
+        <v>0.6818025124038627</v>
       </c>
       <c r="D20">
-        <v>0.03420071050850026</v>
+        <v>0.1005544690345772</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.4246049837719283</v>
+        <v>0.3723566770847455</v>
       </c>
       <c r="G20">
-        <v>0.2665293318013724</v>
+        <v>0.2395558038995915</v>
       </c>
       <c r="H20">
-        <v>0.431071882207668</v>
+        <v>0.1724705753468214</v>
       </c>
       <c r="I20">
-        <v>0.3862984909568699</v>
+        <v>0.09486275786006182</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3425810282798949</v>
+        <v>0.5851730903358288</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.315998229715376</v>
+        <v>0.8210364850675091</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.983938454948031</v>
+        <v>5.746425717809359</v>
       </c>
       <c r="C21">
-        <v>0.4173689288610944</v>
+        <v>0.7436846771985586</v>
       </c>
       <c r="D21">
-        <v>0.03809373793055215</v>
+        <v>0.1125910295541246</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.4272438241014527</v>
+        <v>0.4104215650786003</v>
       </c>
       <c r="G21">
-        <v>0.2669636076904283</v>
+        <v>0.2655516751755584</v>
       </c>
       <c r="H21">
-        <v>0.4266465993363013</v>
+        <v>0.1770100790086957</v>
       </c>
       <c r="I21">
-        <v>0.3766988251205827</v>
+        <v>0.08748126307122384</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3603421155461461</v>
+        <v>0.6583417156243883</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.307951390039335</v>
+        <v>0.8860949208957152</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.116470999645287</v>
+        <v>6.167078236047985</v>
       </c>
       <c r="C22">
-        <v>0.4304800313677504</v>
+        <v>0.7843122152933404</v>
       </c>
       <c r="D22">
-        <v>0.04062922734858887</v>
+        <v>0.1204682428402037</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.4293213111416634</v>
+        <v>0.4365952248866307</v>
       </c>
       <c r="G22">
-        <v>0.2675392120402336</v>
+        <v>0.2837620223431259</v>
       </c>
       <c r="H22">
-        <v>0.4240071000072021</v>
+        <v>0.1806573844143315</v>
       </c>
       <c r="I22">
-        <v>0.3707632696381697</v>
+        <v>0.08369650188365441</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3721004880366507</v>
+        <v>0.7069123186300459</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.303832000016399</v>
+        <v>0.932618982020756</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.045764191462297</v>
+        <v>5.942435035481481</v>
       </c>
       <c r="C23">
-        <v>0.4234812644764929</v>
+        <v>0.7626103831817943</v>
       </c>
       <c r="D23">
-        <v>0.03927681413611595</v>
+        <v>0.116262834602793</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.4281801692753291</v>
+        <v>0.4225006839343237</v>
       </c>
       <c r="G23">
-        <v>0.2672052090750299</v>
+        <v>0.2739247154475777</v>
       </c>
       <c r="H23">
-        <v>0.425392710997869</v>
+        <v>0.1786456069754934</v>
       </c>
       <c r="I23">
-        <v>0.3739001515678986</v>
+        <v>0.08561695874526087</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3658110778247021</v>
+        <v>0.6809157574443532</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.30592607275662</v>
+        <v>0.9074021453301953</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.777367360163908</v>
+        <v>5.094274407804448</v>
       </c>
       <c r="C24">
-        <v>0.3970015473613273</v>
+        <v>0.6807939021945515</v>
       </c>
       <c r="D24">
-        <v>0.0341369358164485</v>
+        <v>0.1003578697133776</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.4245677962754542</v>
+        <v>0.3717549784579646</v>
       </c>
       <c r="G24">
-        <v>0.2665271385380237</v>
+        <v>0.2391501265279459</v>
       </c>
       <c r="H24">
-        <v>0.4311484725752379</v>
+        <v>0.1724072429023948</v>
       </c>
       <c r="I24">
-        <v>0.3864610885899928</v>
+        <v>0.09499999108303214</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3422932779563297</v>
+        <v>0.5839888135493538</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.316148937186796</v>
+        <v>0.8200364814914707</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.486664389307521</v>
+        <v>4.183345997791548</v>
       </c>
       <c r="C25">
-        <v>0.3685112637388102</v>
+        <v>0.5932076610472166</v>
       </c>
       <c r="D25">
-        <v>0.02855657613197593</v>
+        <v>0.08322669618139145</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4221798263982137</v>
+        <v>0.3219553821331331</v>
       </c>
       <c r="G25">
-        <v>0.2670388432517186</v>
+        <v>0.2062691343284371</v>
       </c>
       <c r="H25">
-        <v>0.4384398733895054</v>
+        <v>0.1683258788858097</v>
       </c>
       <c r="I25">
-        <v>0.4014554316263048</v>
+        <v>0.1091618286707661</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.31757377310295</v>
+        <v>0.4822019201106542</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.332044382984904</v>
+        <v>0.7411220814153552</v>
       </c>
     </row>
   </sheetData>
